--- a/features2prediction/weebit/ordinal_regression_evaluation.xlsx
+++ b/features2prediction/weebit/ordinal_regression_evaluation.xlsx
@@ -29,10 +29,10 @@
     <t>mean_absolute_error</t>
   </si>
   <si>
+    <t>LAD</t>
+  </si>
+  <si>
     <t>LogisticAT</t>
-  </si>
-  <si>
-    <t>LAD</t>
   </si>
   <si>
     <t>OrdinalRidge</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.397</v>
+        <v>0.4808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.397</v>
+        <v>0.4808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8901</v>
+        <v>0.9121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.739</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4148</v>
+        <v>0.4615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4148</v>
+        <v>0.4615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8846000000000001</v>
+        <v>0.9121</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7157</v>
+        <v>0.6304999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3956</v>
+        <v>0.456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3956</v>
+        <v>0.456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8819</v>
+        <v>0.9121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7376</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4313</v>
+        <v>0.4945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4313</v>
+        <v>0.4945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8489</v>
+        <v>0.8915</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7554999999999999</v>
+        <v>0.6277</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/ordinal_regression_evaluation.xlsx
+++ b/features2prediction/weebit/ordinal_regression_evaluation.xlsx
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4808</v>
+        <v>0.4821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4808</v>
+        <v>0.4821</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9121</v>
+        <v>0.9203</v>
       </c>
       <c r="E2" t="n">
-        <v>0.614</v>
+        <v>0.6044</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4615</v>
+        <v>0.4629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4615</v>
+        <v>0.4629</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9121</v>
+        <v>0.9135</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.6291</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456</v>
+        <v>0.4533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.456</v>
+        <v>0.4533</v>
       </c>
       <c r="D4" t="n">
         <v>0.9121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.636</v>
+        <v>0.6374</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,10 +471,10 @@
         <v>0.4945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8915</v>
+        <v>0.875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6277</v>
+        <v>0.6552</v>
       </c>
     </row>
   </sheetData>
